--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2414154.805953078</v>
+        <v>-2416737.838022807</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>103.6450161510111</v>
+        <v>19.8400638351355</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.2622415507117</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>131.397240404904</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>20.44874387040078</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191729011</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.51946419745157</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>144.1406215660496</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>337.3754951935082</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>146.5990350281158</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>229.2685541613438</v>
       </c>
       <c r="V10" t="n">
-        <v>147.3013988713529</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.73384166348</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.53421095546611</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.61263105777303</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389039</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>21.23835815356767</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.2938944146489</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>42.71572132711239</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.72582864853715</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.3391137331267</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149753</v>
+        <v>171.0385136149752</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316659</v>
+        <v>158.4533545316657</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512504</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796072</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559693</v>
+        <v>44.76793778823698</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253069</v>
+        <v>156.7306717253067</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792619</v>
+        <v>131.5012462792617</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.4723697516034</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315972</v>
+        <v>57.58178014315955</v>
       </c>
       <c r="S28" t="n">
-        <v>118.7272197445592</v>
+        <v>172.2328194346825</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603263</v>
+        <v>208.6119837603261</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222822</v>
+        <v>277.391007822282</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>243.3441767568659</v>
       </c>
       <c r="W28" t="n">
-        <v>277.729531769629</v>
+        <v>277.7295317696289</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220752</v>
+        <v>216.916188822075</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851328</v>
+        <v>209.7911867851327</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261719</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652637</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4183,7 +4183,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.770455879627</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C2" t="n">
-        <v>921.770455879627</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796268</v>
+        <v>954.6078386576644</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332747</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686072</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064747</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080118</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986292</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.9544330261738</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068854</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459644</v>
       </c>
       <c r="Q4" t="n">
         <v>920.8870058181849</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>495.6028978564135</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>495.6028978564135</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="X4" t="n">
-        <v>495.6028978564135</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.6028978564135</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281156</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744059</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761617</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269582</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,16 +4562,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>357.3178668022015</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>357.3178668022015</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>583.6045342045572</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U7" t="n">
-        <v>294.5016673302008</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302008</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302008</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>507.4345062145372</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.87852028569</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1398.916003345278</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.650304738528</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1040.650304738528</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>629.6643999489202</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>214.5919497939166</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450114</v>
+        <v>599.4721504329409</v>
       </c>
       <c r="V10" t="n">
-        <v>580.4118298557661</v>
+        <v>599.4721504329409</v>
       </c>
       <c r="W10" t="n">
-        <v>580.4118298557661</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="X10" t="n">
-        <v>580.4118298557661</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5078,13 +5078,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740068</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>513.853600740068</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277323</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>365.9405071576763</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>365.9405071576763</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>198.7444078725563</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138379</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703078</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770321</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072718</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400713</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400713</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803618</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979687</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138412</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703111</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380884</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978458</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154527</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683282</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835327</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835333</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711975</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888044</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.6442739835327</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>963.2867201419733</v>
+        <v>663.4384611046121</v>
       </c>
       <c r="C28" t="n">
-        <v>803.2328266756442</v>
+        <v>503.3845676382831</v>
       </c>
       <c r="D28" t="n">
-        <v>661.9984767248862</v>
+        <v>503.3845676382831</v>
       </c>
       <c r="E28" t="n">
-        <v>522.9676726040709</v>
+        <v>503.3845676382831</v>
       </c>
       <c r="F28" t="n">
-        <v>384.9600145677383</v>
+        <v>458.1644284582458</v>
       </c>
       <c r="G28" t="n">
-        <v>226.646204744196</v>
+        <v>299.8506186347043</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>167.0210769384803</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>182.758213379588</v>
+        <v>182.7582133795882</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064189</v>
+        <v>453.1530078064188</v>
       </c>
       <c r="L28" t="n">
         <v>852.2571338836515</v>
@@ -6397,37 +6397,37 @@
         <v>1709.087772077279</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687556</v>
+        <v>2087.322584687557</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162407</v>
+        <v>2388.703572162408</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.6073387906</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.44392450458</v>
+        <v>2458.443924504581</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.517439914116</v>
+        <v>2284.471379621063</v>
       </c>
       <c r="T28" t="n">
-        <v>2127.798264398635</v>
+        <v>2073.752204105582</v>
       </c>
       <c r="U28" t="n">
-        <v>1847.60532720441</v>
+        <v>1793.559266911358</v>
       </c>
       <c r="V28" t="n">
-        <v>1847.60532720441</v>
+        <v>1547.757068167049</v>
       </c>
       <c r="W28" t="n">
-        <v>1567.070446629027</v>
+        <v>1267.222187591666</v>
       </c>
       <c r="X28" t="n">
-        <v>1347.963185192587</v>
+        <v>1048.114926155226</v>
       </c>
       <c r="Y28" t="n">
-        <v>1136.052895510635</v>
+        <v>836.2046364732739</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,13 +6643,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6664,7 +6664,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.53275017731</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.53275017731</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672378</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239595</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096665</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>2834.086956247061</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>2585.117117175645</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>2462.75711663939</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>2202.909080119781</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2249.630143176794</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>2535.361206719452</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>2949.801601912512</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>278.2853539212507</v>
+        <v>362.0903062371263</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -22762,10 +22762,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>20.87540177311627</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>155.125757931687</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>105.8997516911031</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>117.6820817884509</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>105.8997516911</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>131.6952193743941</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.24553961896808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512502</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.640496079607</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>91.85964366773213</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160357</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.50559969012343</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>243.344176756866</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.212186283113602e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1395951.264329687</v>
+        <v>1395951.264329688</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687494</v>
+        <v>32904.09773687493</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="F2" t="n">
+        <v>40357.32998450028</v>
+      </c>
+      <c r="G2" t="n">
         <v>40357.32998450029</v>
       </c>
-      <c r="G2" t="n">
-        <v>40357.32998450032</v>
-      </c>
       <c r="H2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
-        <v>40608.90191777583</v>
+        <v>40608.90191777582</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="M2" t="n">
-        <v>41052.08849321418</v>
-      </c>
       <c r="N2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.0884932142</v>
       </c>
-      <c r="O2" t="n">
-        <v>41052.08849321421</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.9756508472</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006219</v>
+        <v>12392.94474006209</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569581</v>
+        <v>7034.773253569721</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006221</v>
+        <v>12392.94474006212</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,31 +26433,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
         <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>18940.07269946538</v>
+        <v>18940.07269946544</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498546</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498543</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="P4" t="n">
         <v>24037.44323498545</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24037.44323498551</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24037.44323498546</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.787764725</v>
+        <v>101861.7877647251</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
         <v>-160478.5961722317</v>
@@ -26528,40 +26528,40 @@
         <v>-160478.5961722317</v>
       </c>
       <c r="E6" t="n">
-        <v>-402224.2456186538</v>
+        <v>-402258.9835440898</v>
       </c>
       <c r="F6" t="n">
-        <v>-76811.7838112988</v>
+        <v>-76846.5217367345</v>
       </c>
       <c r="G6" t="n">
-        <v>-76811.78381129877</v>
+        <v>-76846.52173673449</v>
       </c>
       <c r="H6" t="n">
-        <v>-76811.7838112988</v>
+        <v>-76846.52173673452</v>
       </c>
       <c r="I6" t="n">
-        <v>-76811.78381129881</v>
+        <v>-76846.52173673452</v>
       </c>
       <c r="J6" t="n">
-        <v>-304758.9341972617</v>
+        <v>-304781.0935260337</v>
       </c>
       <c r="K6" t="n">
-        <v>-98542.41533574888</v>
+        <v>-98542.41533574875</v>
       </c>
       <c r="L6" t="n">
-        <v>-86149.47059568667</v>
+        <v>-86149.47059568659</v>
       </c>
       <c r="M6" t="n">
-        <v>-171204.4985311984</v>
+        <v>-171204.4985311985</v>
       </c>
       <c r="N6" t="n">
         <v>-86149.47059568664</v>
       </c>
       <c r="O6" t="n">
-        <v>-93184.24384925622</v>
+        <v>-93184.24384925637</v>
       </c>
       <c r="P6" t="n">
-        <v>-98542.41533574887</v>
+        <v>-98542.41533574878</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203974</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507774</v>
+        <v>15.49118092507761</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961976</v>
+        <v>8.793466566962152</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507777</v>
+        <v>15.49118092507765</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507774</v>
+        <v>15.49118092507761</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>344.8241479006068</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6421064805523</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>119.9015838254797</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>75.40832771011955</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>45.35834646997233</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>148.0087293592046</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>56.94328404426906</v>
       </c>
       <c r="V10" t="n">
-        <v>104.8362444524751</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.758609669517033e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-7.032208304403592e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961969</v>
+        <v>8.793466566962135</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.8560084902135</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>569.57231719539</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802472</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>211.5147800288503</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162578</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576924</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181837</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>426.9760727509455</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991533</v>
+        <v>89.8399498299155</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765969</v>
+        <v>273.1260549765971</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860934</v>
+        <v>403.1354808860935</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680071</v>
+        <v>435.0658935680073</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568694</v>
+        <v>430.4195995568696</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730074</v>
+        <v>382.0553662730076</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735869</v>
+        <v>304.4252398735871</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668603</v>
+        <v>129.1957238668605</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942257</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>77.54037261452002</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778182</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961654</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
